--- a/xlsx/伦理学_intext.xlsx
+++ b/xlsx/伦理学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="720">
   <si>
     <t>伦理学</t>
   </si>
@@ -29,7 +29,7 @@
     <t>伦理学 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_政治學_伦理学</t>
+    <t>政策_政策_政治学_伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%A6</t>
@@ -71,19 +71,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%AC%C2%B7%E9%AD%AF%E4%B8%96%E5%BE%B7</t>
   </si>
   <si>
-    <t>伊本·魯世德</t>
+    <t>伊本·鲁世德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%AD%B8%E5%AE%B6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美學家列表</t>
+    <t>美学家列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E8%AB%96%E8%80%85%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>知識論者列表</t>
+    <t>知识论者列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_ethicists</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E8%80%8C%E4%B8%8A%E5%AD%B8%E5%AD%B8%E8%80%85%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>形而上學學者列表</t>
+    <t>形而上学学者列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_social_and_political_philosophers</t>
@@ -119,13 +119,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%9E%90%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>分析哲學</t>
+    <t>分析哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%87%8C%E6%96%AF%E5%A4%9A%E5%BE%B7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>亞里斯多德主義</t>
+    <t>亚里斯多德主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Buddhist_philosophy</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E9%99%B8%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>歐陸哲學</t>
+    <t>欧陆哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E5%9C%A8%E4%B8%BB%E4%B9%89</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>猶太教哲學</t>
+    <t>犹太教哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E7%94%A8%E4%B8%BB%E4%B9%89</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>東方哲學</t>
+    <t>东方哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%93%B2%E5%AD%A6</t>
@@ -209,13 +209,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>中世紀哲學</t>
+    <t>中世纪哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E4%BB%A3%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>近代哲學</t>
+    <t>近代哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%93%E4%BB%A3%E5%93%B2%E5%AD%A6</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E8%A7%A3%E6%B1%BA%E7%9A%84%E5%93%B2%E5%AD%B8%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>未解決的哲學問題</t>
+    <t>未解决的哲学问题</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_important_publications_in_philosophy</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E5%AE%B6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>哲學家列表</t>
+    <t>哲学家列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%AD%A6%E9%97%AE%E7%9A%84%E4%BA%BA</t>
@@ -341,15 +341,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E5%80%BC%E8%AB%96</t>
   </si>
   <si>
-    <t>價值論</t>
+    <t>价值论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%AD%B8</t>
   </si>
   <si>
-    <t>美學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E4%BC%A6%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
@@ -359,31 +356,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%8F%E7%AF%84%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>規範倫理學</t>
+    <t>规范伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>應用倫理學</t>
+    <t>应用伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%8F%E8%BF%B0%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>描述倫理學</t>
+    <t>描述伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>倫理</t>
+    <t>伦理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%84%E8%88%87%E6%83%A1</t>
   </si>
   <si>
-    <t>善與惡</t>
+    <t>善与恶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%BE%B7</t>
@@ -395,7 +392,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>正義</t>
+    <t>正义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%AA%E8%A1%8C</t>
@@ -407,7 +404,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D%E6%A9%8B%E5%93%B2%E5%AD%B8%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>劍橋哲學辭典</t>
+    <t>剑桥哲学辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6</t>
@@ -419,31 +416,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%8B%E6%B0%8F%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>韋氏詞典</t>
+    <t>韦氏词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>認知主義</t>
+    <t>认知主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%AD%AF%C2%B7%E5%8D%A1%E5%85%A7%E5%9F%BA</t>
   </si>
   <si>
-    <t>安德魯·卡內基</t>
+    <t>安德鲁·卡内基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E9%AB%94%E8%AB%96</t>
   </si>
   <si>
-    <t>本體論</t>
+    <t>本体论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E7%9A%84%E8%AB%96</t>
   </si>
   <si>
-    <t>目的論</t>
+    <t>目的论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%89%E5%8A%A1%E8%AE%BA</t>
@@ -455,61 +452,61 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%80%A7%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>德性倫理學</t>
+    <t>德性伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>工程倫理</t>
+    <t>工程伦理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物倫理學</t>
+    <t>生物伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E6%A5%AD%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>企業倫理學</t>
+    <t>企业伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>生命倫理學</t>
+    <t>生命伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物學</t>
+    <t>生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>醫學</t>
+    <t>医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>生命科學</t>
+    <t>生命科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>生物技術</t>
+    <t>生物技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治學</t>
+    <t>政治学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%AD%A6</t>
@@ -521,9 +518,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>哲學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%9A%86</t>
   </si>
   <si>
@@ -533,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9B%A0%E6%B2%BB%E7%99%82</t>
   </si>
   <si>
-    <t>基因治療</t>
+    <t>基因治疗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9B%A0%E5%B7%A5%E7%A8%8B%E5%AD%A6</t>
@@ -557,7 +551,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9B%8B%E7%99%BD%E8%B3%AA</t>
   </si>
   <si>
-    <t>蛋白質</t>
+    <t>蛋白质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83</t>
@@ -569,31 +563,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%AE%A4%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>溫室效應</t>
+    <t>温室效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%96%87%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>天文生物學</t>
+    <t>天文生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>商業倫理</t>
+    <t>商业伦理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E6%A5%AD%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>專業倫理學</t>
+    <t>专业伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%C2%B7%E5%8F%B2%E5%AF%86%E6%96%AF</t>
   </si>
   <si>
-    <t>亞當·史密斯</t>
+    <t>亚当·史密斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E6%80%80%E4%BC%A6%E7%90%86%E5%AD%A6</t>
@@ -605,13 +599,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%AA%8C</t>
   </si>
   <si>
-    <t>民族誌</t>
+    <t>民族志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%85%A7%E7%93%A6%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>日內瓦公約</t>
+    <t>日内瓦公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E4%BC%A6%E5%A0%A1%E5%8E%9F%E5%88%99</t>
@@ -623,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%BE%A9%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>正義戰爭</t>
+    <t>正义战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89%E6%B3%95</t>
@@ -635,25 +629,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會科學</t>
+    <t>社会科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>人文學</t>
+    <t>人文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%AF%E7%A4%BA%E6%80%A7%E5%81%8F%E5%A5%BD</t>
   </si>
   <si>
-    <t>顯示性偏好</t>
+    <t>显示性偏好</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>人類學</t>
+    <t>人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%AF%97</t>
@@ -671,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%80%AB</t>
   </si>
   <si>
-    <t>五倫</t>
+    <t>五伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%95%E8%BE%BE%E5%93%A5%E6%8B%89%E6%96%AF</t>
@@ -695,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>基督教神學</t>
+    <t>基督教神学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%8F%A4%E6%96%AF%E4%B8%81</t>
@@ -707,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%88%B6%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>教父哲學</t>
+    <t>教父哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A5%8E%E9%82%A3</t>
@@ -803,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99</t>
   </si>
   <si>
-    <t>啟蒙</t>
+    <t>启蒙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8F%E5%B0%94%E6%B3%B0</t>
@@ -839,13 +833,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E5%8F%B2%E8%B3%93%E8%B3%BD</t>
   </si>
   <si>
-    <t>赫伯特·史賓賽</t>
+    <t>赫伯特·史宾赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%91%AA%E6%96%AF%C2%B7%E4%BA%A8%E5%88%A9%C2%B7%E8%B5%AB%E8%83%A5%E9%BB%8E</t>
   </si>
   <si>
-    <t>湯瑪斯·亨利·赫胥黎</t>
+    <t>汤玛斯·亨利·赫胥黎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%BA%B7%E5%BE%B7%E4%B8%BB%E4%B9%89</t>
@@ -881,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BD%8A%E5%85%8B%E6%9E%9C</t>
   </si>
   <si>
-    <t>齊克果</t>
+    <t>齐克果</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%94%E6%9C%AC%E5%8D%8E</t>
@@ -893,19 +887,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>醫學倫理學</t>
+    <t>医学伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>環境倫理</t>
+    <t>环境伦理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>性倫理</t>
+    <t>性伦理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1</t>
@@ -971,7 +965,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E7%AD%89%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>平等原則</t>
+    <t>平等原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E4%BB%BB</t>
@@ -989,7 +983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E8%AD%98</t>
   </si>
   <si>
-    <t>共識</t>
+    <t>共识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%9D%83%E5%88%A9</t>
@@ -1085,7 +1079,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>行動理論</t>
+    <t>行动理论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Philosophy_of_culture</t>
@@ -1133,13 +1127,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>教育哲學</t>
+    <t>教育哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>環境哲學</t>
+    <t>环境哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Philosophy_of_healthcare</t>
@@ -1229,13 +1223,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物學哲學</t>
+    <t>生物学哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>地理哲學</t>
+    <t>地理哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Philosophy_of_sex</t>
@@ -1259,7 +1253,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%B9%B3%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>公平正義</t>
+    <t>公平正义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Philosophy_of_space_and_time</t>
@@ -1301,7 +1295,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>哲學史</t>
+    <t>哲学史</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Renaissance_philosophy</t>
@@ -1319,7 +1313,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>啟蒙時代</t>
+    <t>启蒙时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/19%E4%B8%96%E7%BA%AA%E5%93%B2%E5%AD%A6</t>
@@ -1355,7 +1349,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E6%99%89%E7%8E%84%E5%AD%B8</t>
   </si>
   <si>
-    <t>魏晉玄學</t>
+    <t>魏晋玄学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%AE%B6</t>
@@ -1403,7 +1397,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%AD%E8%BE%AF%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>詭辯學派</t>
+    <t>诡辩学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9B%BE%E4%B8%BB%E4%B9%89</t>
@@ -1415,25 +1409,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%8D%E9%81%99%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>逍遙學派</t>
+    <t>逍遥学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AC%E5%84%92%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>犬儒學派</t>
+    <t>犬儒学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%AF%94%E9%B3%A9%E9%AD%AF%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>伊比鳩魯學派</t>
+    <t>伊比鸠鲁学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A4%9A%E4%BA%9E%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>斯多亞學派</t>
+    <t>斯多亚学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%9F%8F%E6%8B%89%E5%9B%BE%E4%B8%BB%E4%B9%89</t>
@@ -1445,7 +1439,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E9%87%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>解釋學</t>
+    <t>解释学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%93%B2%E5%AD%A6</t>
@@ -1493,7 +1487,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E6%98%8E%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>宋明理學</t>
+    <t>宋明理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%8B%E6%9C%B1%E7%90%86%E5%AD%A6</t>
@@ -1511,13 +1505,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8B%E5%8A%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>事功學派</t>
+    <t>事功学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E5%84%92%E5%AD%B8</t>
   </si>
   <si>
-    <t>韓國儒學</t>
+    <t>韩国儒学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%9C%B1%E5%AD%90%E5%AD%A6</t>
@@ -1625,7 +1619,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%88%E7%9B%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>效益主義</t>
+    <t>效益主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E8%87%AA%E7%94%B1%E4%B8%BB%E4%B9%89</t>
@@ -1643,13 +1637,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>現代主義</t>
+    <t>现代主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E8%B1%A1%E5%AD%B8</t>
   </si>
   <si>
-    <t>現象學</t>
+    <t>现象学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%AA%8C%E4%B8%BB%E4%B9%89</t>
@@ -1661,7 +1655,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%9C%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>日本國學</t>
+    <t>日本国学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%84%92%E5%AE%B6</t>
@@ -1685,7 +1679,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>實驗哲學</t>
+    <t>实验哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Internalism_and_externalism</t>
@@ -1733,13 +1727,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%B8%B8%E8%AA%9E%E8%A8%80%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>日常語言哲學</t>
+    <t>日常语言哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%82%E9%9D%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>寂靜主義</t>
+    <t>寂静主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Reformed_epistemology</t>
@@ -1769,13 +1763,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>批判理論</t>
+    <t>批判理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%A7%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>解構主義</t>
+    <t>解构主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Feminist_philosophy</t>
@@ -1787,7 +1781,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B%E7%A6%8F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>法蘭克福學派</t>
+    <t>法兰克福学派</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Postmodern_philosophy</t>
@@ -1799,7 +1793,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E7%B5%90%E6%A7%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>後結構主義</t>
+    <t>后结构主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%BB%BA%E6%9E%84%E4%B8%BB%E4%B9%89</t>
@@ -1811,13 +1805,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>結構主義</t>
+    <t>结构主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E9%83%BD%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>京都學派</t>
+    <t>京都学派</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Russian_cosmism</t>
@@ -1853,7 +1847,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E5%AE%9A%E8%AB%96</t>
   </si>
   <si>
-    <t>決定論</t>
+    <t>决定论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Libertarianism_(metaphysics)</t>
@@ -1865,7 +1859,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%AD%90%E8%AB%96</t>
   </si>
   <si>
-    <t>原子論</t>
+    <t>原子论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E8%AE%BA</t>
@@ -1883,7 +1877,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E8%80%8C%E4%B8%8A%E8%87%AA%E7%84%B6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>形而上自然主義</t>
+    <t>形而上自然主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Constructivist_epistemology</t>
@@ -1907,7 +1901,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E4%BB%B0%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>信仰主義</t>
+    <t>信仰主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Reasonism</t>
@@ -1925,7 +1919,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E6%88%91%E8%AB%96</t>
   </si>
   <si>
-    <t>唯我論</t>
+    <t>唯我论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E4%B8%BA%E4%B8%BB%E4%B9%89</t>
@@ -1955,13 +1949,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%A7%80%E6%80%A7</t>
   </si>
   <si>
-    <t>客觀性</t>
+    <t>客观性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A7%80%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>主觀主義</t>
+    <t>主观主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Norm_(philosophy)</t>
@@ -1991,7 +1985,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%BE%B7%E8%99%9B%E7%84%A1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>道德虛無主義</t>
+    <t>道德虚无主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%BE%B7%E6%80%80%E7%96%91%E4%B8%BB%E4%B9%89</t>
@@ -2021,7 +2015,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E5%AF%A6</t>
   </si>
   <si>
-    <t>現實</t>
+    <t>现实</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Anti-realism</t>
@@ -2033,15 +2027,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A6%82%E5%BF%B5%E8%AB%96</t>
   </si>
   <si>
-    <t>概念論</t>
+    <t>概念论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E5%BF%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>唯心主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E7%89%A9%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
@@ -2051,13 +2042,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E5%90%8D%E8%AB%96</t>
   </si>
   <si>
-    <t>唯名論</t>
+    <t>唯名论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E5%9C%A8%E8%AB%96</t>
   </si>
   <si>
-    <t>實在論</t>
+    <t>实在论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ethiopian_philosophy</t>
@@ -2075,7 +2066,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>日本哲學</t>
+    <t>日本哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Korean_philosophy</t>
@@ -2087,7 +2078,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>臺灣哲學</t>
+    <t>台湾哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Indonesian_philosophy</t>
@@ -2129,7 +2120,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>德國哲學</t>
+    <t>德国哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Italian_philosophy</t>
@@ -2165,13 +2156,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E6%A6%82%E5%BF%B5%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>哲學概念列表</t>
+    <t>哲学概念列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2183,7 +2174,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -4120,7 +4111,7 @@
         <v>109</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -4146,10 +4137,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>10</v>
@@ -4175,10 +4166,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>7</v>
@@ -4204,10 +4195,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>10</v>
@@ -4233,10 +4224,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>13</v>
@@ -4262,10 +4253,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4291,10 +4282,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -4320,10 +4311,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -4349,10 +4340,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -4378,10 +4369,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4407,10 +4398,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4436,10 +4427,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4465,10 +4456,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4494,10 +4485,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>7</v>
@@ -4523,10 +4514,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>4</v>
@@ -4552,10 +4543,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4581,10 +4572,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4610,10 +4601,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -4639,10 +4630,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -4668,10 +4659,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
@@ -4697,10 +4688,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -4726,10 +4717,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>3</v>
@@ -4755,10 +4746,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4784,10 +4775,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>6</v>
@@ -4813,10 +4804,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -4842,10 +4833,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
@@ -4871,10 +4862,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4900,10 +4891,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -4929,10 +4920,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4958,10 +4949,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4987,10 +4978,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>6</v>
       </c>
       <c r="G85" t="n">
         <v>13</v>
@@ -5016,10 +5007,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5045,10 +5036,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5074,10 +5065,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5103,10 +5094,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5132,10 +5123,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5161,10 +5152,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -5190,10 +5181,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>16</v>
@@ -5219,10 +5210,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5248,10 +5239,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5277,10 +5268,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>7</v>
@@ -5306,10 +5297,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>3</v>
@@ -5335,10 +5326,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5364,10 +5355,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5393,10 +5384,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -5422,10 +5413,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5451,10 +5442,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5480,10 +5471,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5509,10 +5500,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -5538,10 +5529,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5567,10 +5558,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5596,10 +5587,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5625,10 +5616,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>116</v>
+      </c>
+      <c r="F107" t="s">
         <v>117</v>
-      </c>
-      <c r="F107" t="s">
-        <v>118</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5654,10 +5645,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -5683,10 +5674,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5712,10 +5703,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5741,10 +5732,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5770,10 +5761,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -5799,10 +5790,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -5828,10 +5819,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>3</v>
@@ -5857,10 +5848,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5886,10 +5877,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -5915,10 +5906,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5944,10 +5935,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>3</v>
@@ -5973,10 +5964,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -6002,10 +5993,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6031,10 +6022,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6060,10 +6051,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -6089,10 +6080,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6118,10 +6109,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6147,10 +6138,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6176,10 +6167,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6205,10 +6196,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>13</v>
@@ -6234,10 +6225,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6263,10 +6254,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>3</v>
@@ -6292,10 +6283,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -6321,10 +6312,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>4</v>
@@ -6350,10 +6341,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -6379,10 +6370,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -6408,10 +6399,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6437,10 +6428,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>4</v>
@@ -6466,10 +6457,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -6495,10 +6486,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -6524,10 +6515,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6553,10 +6544,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6582,10 +6573,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6611,10 +6602,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -6640,10 +6631,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6669,10 +6660,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -6698,10 +6689,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6727,10 +6718,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6756,10 +6747,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -6785,10 +6776,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -6814,10 +6805,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>114</v>
+      </c>
+      <c r="F148" t="s">
         <v>115</v>
-      </c>
-      <c r="F148" t="s">
-        <v>116</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6843,10 +6834,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>112</v>
+      </c>
+      <c r="F149" t="s">
         <v>113</v>
-      </c>
-      <c r="F149" t="s">
-        <v>114</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6872,10 +6863,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>110</v>
+      </c>
+      <c r="F150" t="s">
         <v>111</v>
-      </c>
-      <c r="F150" t="s">
-        <v>112</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6901,10 +6892,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6930,10 +6921,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6959,10 +6950,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G153" t="n">
         <v>4</v>
@@ -6988,10 +6979,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>8</v>
@@ -7017,10 +7008,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -7046,10 +7037,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -7075,10 +7066,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7104,10 +7095,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F158" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -7133,10 +7124,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7162,10 +7153,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F160" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -7191,10 +7182,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F161" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -7220,10 +7211,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>124</v>
+      </c>
+      <c r="F162" t="s">
         <v>125</v>
-      </c>
-      <c r="F162" t="s">
-        <v>126</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -7249,10 +7240,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7278,10 +7269,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F164" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7307,10 +7298,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -7336,10 +7327,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7365,10 +7356,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7394,10 +7385,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G168" t="n">
         <v>3</v>
@@ -7423,10 +7414,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7452,10 +7443,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7481,10 +7472,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7510,10 +7501,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F172" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7568,10 +7559,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F174" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7597,10 +7588,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>142</v>
+      </c>
+      <c r="F175" t="s">
         <v>143</v>
-      </c>
-      <c r="F175" t="s">
-        <v>144</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7626,10 +7617,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F176" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7655,10 +7646,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>144</v>
+      </c>
+      <c r="F177" t="s">
         <v>145</v>
-      </c>
-      <c r="F177" t="s">
-        <v>146</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7684,10 +7675,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F178" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -7713,10 +7704,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F179" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7742,10 +7733,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F180" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7771,10 +7762,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F181" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7800,10 +7791,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F182" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7829,10 +7820,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F183" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7858,10 +7849,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F184" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7887,10 +7878,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F185" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7916,10 +7907,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F186" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7945,10 +7936,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F187" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7974,10 +7965,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F188" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8003,10 +7994,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F189" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8061,10 +8052,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F191" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -8119,10 +8110,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F193" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8148,10 +8139,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F194" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8177,10 +8168,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F195" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8206,10 +8197,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F196" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8235,10 +8226,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F197" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G197" t="n">
         <v>7</v>
@@ -8264,10 +8255,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F198" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8293,10 +8284,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F199" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8322,10 +8313,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F200" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -8351,10 +8342,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F201" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8380,10 +8371,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F202" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8409,10 +8400,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F203" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G203" t="n">
         <v>3</v>
@@ -8438,10 +8429,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F204" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8467,10 +8458,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F205" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8496,10 +8487,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F206" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8525,10 +8516,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F207" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8554,10 +8545,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F208" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -8583,10 +8574,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F209" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8612,10 +8603,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F210" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8641,10 +8632,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F211" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8670,10 +8661,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F212" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -8699,10 +8690,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F213" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -8728,10 +8719,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F214" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8757,10 +8748,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F215" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8786,10 +8777,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F216" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G216" t="n">
         <v>10</v>
@@ -8815,10 +8806,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F217" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G217" t="n">
         <v>3</v>
@@ -8844,10 +8835,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F218" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8873,10 +8864,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F219" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8902,10 +8893,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F220" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8931,10 +8922,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F221" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9018,10 +9009,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F224" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9047,10 +9038,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F225" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9076,10 +9067,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F226" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9105,10 +9096,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F227" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9134,10 +9125,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F228" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9163,10 +9154,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F229" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9192,10 +9183,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F230" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9250,10 +9241,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F232" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9279,10 +9270,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F233" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9308,10 +9299,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F234" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9337,10 +9328,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F235" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9395,10 +9386,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F237" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -9424,10 +9415,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F238" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9453,10 +9444,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F239" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9482,10 +9473,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F240" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9511,10 +9502,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F241" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9540,10 +9531,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F242" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9569,10 +9560,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F243" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9598,10 +9589,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F244" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9627,10 +9618,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F245" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9656,10 +9647,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F246" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9685,10 +9676,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F247" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9714,10 +9705,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F248" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9743,10 +9734,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F249" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9772,10 +9763,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F250" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -9830,10 +9821,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F252" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9859,10 +9850,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F253" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9888,10 +9879,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F254" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9917,10 +9908,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F255" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9946,10 +9937,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F256" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9975,10 +9966,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F257" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10004,10 +9995,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F258" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G258" t="n">
         <v>6</v>
@@ -10062,10 +10053,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F260" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10149,10 +10140,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F263" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -10178,10 +10169,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F264" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10207,10 +10198,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F265" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10236,10 +10227,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F266" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10294,10 +10285,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F268" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -10323,10 +10314,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F269" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10352,10 +10343,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F270" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10381,10 +10372,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F271" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10410,10 +10401,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F272" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10439,10 +10430,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F273" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10468,10 +10459,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F274" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10497,10 +10488,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F275" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10526,10 +10517,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F276" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10555,10 +10546,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F277" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10584,10 +10575,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F278" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10613,10 +10604,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F279" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10642,10 +10633,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F280" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10671,10 +10662,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F281" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10700,10 +10691,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F282" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10758,10 +10749,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F284" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10787,10 +10778,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F285" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10816,10 +10807,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F286" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10845,10 +10836,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F287" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G287" t="n">
         <v>3</v>
@@ -10874,10 +10865,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F288" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10903,10 +10894,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F289" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10932,10 +10923,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F290" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G290" t="n">
         <v>2</v>
@@ -10961,10 +10952,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F291" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10990,10 +10981,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F292" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G292" t="n">
         <v>2</v>
@@ -11019,10 +11010,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F293" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11048,10 +11039,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F294" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11077,10 +11068,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F295" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11106,10 +11097,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F296" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11135,10 +11126,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F297" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11164,10 +11155,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F298" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11193,10 +11184,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F299" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11222,10 +11213,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F300" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11251,10 +11242,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F301" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G301" t="n">
         <v>2</v>
@@ -11280,10 +11271,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F302" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11309,10 +11300,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F303" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11338,10 +11329,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F304" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11367,10 +11358,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F305" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11396,10 +11387,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F306" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11425,10 +11416,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F307" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11454,10 +11445,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F308" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11483,10 +11474,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F309" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11512,10 +11503,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F310" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11541,10 +11532,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F311" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11570,10 +11561,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F312" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11599,10 +11590,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F313" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11628,10 +11619,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F314" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11657,10 +11648,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
+        <v>144</v>
+      </c>
+      <c r="F315" t="s">
         <v>145</v>
-      </c>
-      <c r="F315" t="s">
-        <v>146</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11686,10 +11677,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F316" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11715,10 +11706,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F317" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11773,10 +11764,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F319" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11802,10 +11793,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F320" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11831,10 +11822,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F321" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11860,10 +11851,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F322" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11889,10 +11880,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F323" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11918,10 +11909,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F324" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11947,10 +11938,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F325" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11976,10 +11967,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F326" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G326" t="n">
         <v>2</v>
@@ -12005,10 +11996,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F327" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12034,10 +12025,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F328" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12063,10 +12054,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F329" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12092,10 +12083,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F330" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12121,10 +12112,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F331" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12150,10 +12141,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F332" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12179,10 +12170,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F333" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12208,10 +12199,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F334" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12237,10 +12228,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F335" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12266,10 +12257,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F336" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G336" t="n">
         <v>3</v>
@@ -12295,10 +12286,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F337" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12324,10 +12315,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F338" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G338" t="n">
         <v>3</v>
@@ -12353,10 +12344,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F339" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12382,10 +12373,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F340" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12411,10 +12402,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F341" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12440,10 +12431,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F342" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12469,10 +12460,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F343" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G343" t="n">
         <v>2</v>
@@ -12498,10 +12489,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F344" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12527,10 +12518,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F345" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12556,10 +12547,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F346" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12585,10 +12576,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F347" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12614,10 +12605,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F348" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12643,10 +12634,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F349" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12672,10 +12663,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F350" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12701,10 +12692,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F351" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12730,10 +12721,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F352" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12759,10 +12750,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F353" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12788,10 +12779,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F354" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12817,10 +12808,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F355" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12846,10 +12837,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F356" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12875,10 +12866,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F357" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12904,10 +12895,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F358" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12933,10 +12924,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F359" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -12962,10 +12953,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F360" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G360" t="n">
         <v>2</v>
@@ -12991,10 +12982,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F361" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13020,10 +13011,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F362" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13049,10 +13040,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F363" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13078,10 +13069,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F364" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13107,10 +13098,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F365" t="s">
-        <v>674</v>
+        <v>530</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13136,10 +13127,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F366" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G366" t="n">
         <v>2</v>
@@ -13165,10 +13156,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F367" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13194,10 +13185,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F368" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13223,10 +13214,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F369" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13252,10 +13243,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F370" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13281,10 +13272,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F371" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="G371" t="n">
         <v>3</v>
@@ -13310,10 +13301,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F372" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13339,10 +13330,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F373" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13368,10 +13359,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="F374" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13397,10 +13388,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F375" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13426,10 +13417,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="F376" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13455,10 +13446,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F377" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13484,10 +13475,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F378" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13513,10 +13504,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="F379" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13542,10 +13533,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F380" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G380" t="n">
         <v>3</v>
@@ -13571,10 +13562,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F381" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G381" t="n">
         <v>4</v>
@@ -13600,10 +13591,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F382" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13629,10 +13620,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F383" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13658,10 +13649,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F384" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13687,10 +13678,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F385" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13716,10 +13707,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F386" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -13774,10 +13765,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="F388" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -13832,10 +13823,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F390" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="G390" t="n">
         <v>3</v>
@@ -13861,10 +13852,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="F391" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -13890,10 +13881,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F392" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
